--- a/data/Greencastle.xlsx
+++ b/data/Greencastle.xlsx
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>127475625</v>
+        <v>237771218</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>158823298</v>
+        <v>269118891</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>352073154</v>
+        <v>462368747</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>996720202</v>
+        <v>1107015795</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>448836430</v>
+        <v>559132023</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>456442180</v>
+        <v>566737773</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>651497527</v>
+        <v>761793120</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>864089815</v>
+        <v>974385408</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Mar 9, 12:00PM</t>
+          <t>Mar 10, 12:00PM</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>901108506</v>
+        <v>1011404098</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
@@ -1740,11 +1740,11 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Mar 9, 12:00PM</t>
+          <t>Mar 10, 12:00PM</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>902438129</v>
+        <v>1012733721</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>2640069937</v>
+        <v>2750365529</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>1851811097</v>
+        <v>1962106690</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -2025,11 +2025,11 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Mar 9, 12:00PM</t>
+          <t>Mar 10, 12:00PM</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>1525479715</v>
+        <v>1635775308</v>
       </c>
       <c r="R17" t="n">
         <v>1</v>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>1961097270</v>
+        <v>2071392863</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>2373532012</v>
+        <v>2483827605</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>2568009408</v>
+        <v>2678305001</v>
       </c>
       <c r="R20" t="n">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>4452817761</v>
+        <v>4563113354</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>8618425628</v>
+        <v>8728721221</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>5487248048</v>
+        <v>5597543641</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>6274692853</v>
+        <v>6384988446</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>10923916720</v>
+        <v>11034212313</v>
       </c>
       <c r="R25" t="n">
         <v>1</v>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>10924180790</v>
+        <v>11034476383</v>
       </c>
       <c r="R26" t="n">
         <v>1</v>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>10924429154</v>
+        <v>11034724747</v>
       </c>
       <c r="R27" t="n">
         <v>1</v>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>10924866811</v>
+        <v>11035162404</v>
       </c>
       <c r="R28" t="n">
         <v>1</v>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>10924590903</v>
+        <v>11034886496</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>10924913206</v>
+        <v>11035208799</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>11381464198</v>
+        <v>11491759791</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>11176460088</v>
+        <v>11286755681</v>
       </c>
       <c r="R32" t="n">
         <v>1</v>
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>15938408756</v>
+        <v>16048704349</v>
       </c>
       <c r="R33" t="n">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>18286910984</v>
+        <v>18397206577</v>
       </c>
       <c r="R34" t="n">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>18295229535</v>
+        <v>18405525128</v>
       </c>
       <c r="R35" t="n">
         <v>1</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>22786700108</v>
+        <v>22896995701</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3909,11 +3909,11 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Mar 9, 12:00PM</t>
+          <t>Mar 10, 12:00PM</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>25637104901</v>
+        <v>25747400494</v>
       </c>
       <c r="R37" t="n">
         <v>1</v>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>27353326265</v>
+        <v>27463621858</v>
       </c>
       <c r="R38" t="n">
         <v>1</v>
@@ -4103,7 +4103,7 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>44539825781</v>
+        <v>44650121373</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>4889436630</v>
+        <v>4999732223</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>17217142867</v>
+        <v>17327438460</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>9997093204</v>
+        <v>10107388797</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>16981891027</v>
+        <v>17092186620</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>34686329068</v>
+        <v>34796624660</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>39960805974</v>
+        <v>40071101566</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>39935890187</v>
+        <v>40046185779</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>53977878915</v>
+        <v>54088174508</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>133384787164</v>
+        <v>133495082757</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>154553589084</v>
+        <v>154663884677</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>

--- a/data/Greencastle.xlsx
+++ b/data/Greencastle.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,12 +553,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PAFL2018822</t>
+          <t>PAFL2026598</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>460 Paradise View Dr</t>
+          <t>7002 Shannon Drive South</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -572,16 +572,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>529990</v>
+        <v>419990</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2293</v>
+        <v>2222</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -593,14 +593,16 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2024</v>
+        <v>70</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Antrim-Township/460-Paradise-View-Dr-17225/home/190052026</t>
+          <t>https://www.redfin.com/PA/Greencastle/7002-Shannon-Dr-S-17225/home/195339921</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -614,10 +616,12 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>237771218</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
+        <v>137525202</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -626,30 +630,30 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The to-be-built Ashbrooke, at The Greens of Greencastle, is the master of accommodation. Each of the three spacious bedrooms offers a private setting when it’s time to unwind. A perfect retreat for guests who will never want to leave. Or an ideal spot for a quiet office. The large great room flows into the kitchen, and dining area, creating a natural gathering place for family and friends. And, if an extra bedroom is on your list, a finished lower level is available. The Ashbrooke’s flexible floorplan adapts to fit your life. Add a covered porch to enjoy the gorgeous views and/or a fireplace for extra warmth and coziness. Lots of options to choose from! The new section at The Gr</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>PARADISE ESTATES</t>
+          <t>GREENCASTLE GREENS</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>39.7507502</v>
+        <v>39.80388428</v>
       </c>
       <c r="W2" t="n">
-        <v>-77.7619873</v>
+        <v>-77.74656416000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PAFL2018816</t>
+          <t>PAFL2026272</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162 E Madison St</t>
+          <t>350 Hykes Road East S</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -663,16 +667,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>329900</v>
+        <v>405000</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1988</v>
+        <v>2176</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -683,17 +687,15 @@
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
+      <c r="L3" t="n">
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>1896</v>
+        <v>2007</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/162-E-Madison-St-17225/home/53523652</t>
+          <t>https://www.redfin.com/PA/Greencastle/350-Hykes-Rd-E-17225/home/53023555</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -707,7 +709,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>269118891</v>
+        <v>756097474</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
@@ -719,30 +721,30 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>COMPLETLY RENOVATED DUPLEX IN GREENCASTLE, PA! The property is in an excellent location within walking distance to the schools, parks, pool, ball fields, stores, and more! This duplex has been renovated and updated from top to bottom including siding, light fixtures, flooring, paint, electrical, hot water heaters, HVAC, bathrooms, roof in 2022, and all of the plumbing inside the home! Unit 162 features 4 bedrooms, 1.5 bathrooms, living room, dining room, kitchen, laundry/ mudroom, and basement. Unit 162A features 1 bedroom, 1 bathroom, kitchen, and living room. Both units are empty and are ready to rent! Purchase this as an investment property, or live in one side and rent the other, or hav</t>
+          <t>Charming 4-Bedroom Colonial in Quiet Neighborhood This spacious 4-bedroom, 2.5-bath Colonial is nestled in a peaceful development and backs to a serene wooded area. Enjoy outdoor living in the fenced yard with a patio just off the family room through sliding patio doors—perfect for entertaining or relaxing. Inside, you’ll find a formal living room, a dining room, and a grand two-story foyer that adds to the home’s elegant appeal. The kitchen features a center island, ample cabinetry, and space for a kitchen table, ideal for casual dining. Upstairs, the main bedroom suite includes its own private bath and a walk-in closet. Convenient upper-level laundry makes chores a breez</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>GREENCASTLE BOROUGH</t>
+          <t>CEDARBROOK</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>39.7909586</v>
+        <v>39.7335319</v>
       </c>
       <c r="W3" t="n">
-        <v>-77.72341179999999</v>
+        <v>-77.7195729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PAFL2018760</t>
+          <t>PAFL2026578</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29 N Jefferson St</t>
+          <t>11949 Williamsport Pike</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>210000</v>
+        <v>315000</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1555</v>
+        <v>2512</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -782,11 +784,11 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1930</v>
+        <v>1973</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/29-N-Jefferson-St-17225/home/53523640</t>
+          <t>https://www.redfin.com/PA/Greencastle/11949-Williamsport-Pike-17225/home/53515175</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -799,8 +801,10 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>462368747</v>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -814,30 +818,30 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Located on a quiet street in sought-after Greencastle, this attractive colonial is move-in ready!  Highlights include an attractive kitchen, updated bath, cozy and calming wall colors, and beautiful, luxury vinyl flooring throughout. A bonus room on the main level offers the perfect spot for an office, craft room, or library. Washer and dryer on the main level adds convenience. Step outside and enjoy a relaxing evening in the back yard space (hot tub conveys), or take a short walk to the community park. Vinyl fence will be installed in 2-3 weeks. Metal roof was installed in 2023.  Updated electrical work. Existing home warranty transfers to new buyer. Water softener installed in 2023.  Cont</t>
+          <t>Professional Photos Coming Soon!   Welcome to this charming all-brick rancher, set on a spacious 0.93-acre lot—perfect for outdoor entertaining or simply relaxing while taking in the peaceful views. An attached carport offers convenient, covered parking. Step inside to a bright and inviting living room, featuring a fireplace (currently set up for an insert) and a large bow window that floods the space with natural light. The spacious kitchen includes plenty of cabinet storage and a cozy dining area, ideal for everyday meals or hosting family and friends. This home offers a comfortable layout with a primary bedroom that includes a private bath with a stand-up shower, two additional bed</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>GREENCASTLE</t>
+          <t>Greencastle</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>39.7913394</v>
+        <v>39.770379</v>
       </c>
       <c r="W4" t="n">
-        <v>-77.72910160000001</v>
+        <v>-77.7446643</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PAFL2018622</t>
+          <t>PAFL2026390</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2205 Pikeside Dr</t>
+          <t>418 W Walter Ave</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -851,16 +855,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>497900</v>
+        <v>579900</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2355</v>
+        <v>5902</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -877,25 +881,25 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/2205-Pikeside-Dr-17225/home/53516244</t>
+          <t>https://www.redfin.com/PA/Greencastle/418-W-Walter-Ave-17225/home/53034881</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open House - 12:00 - 2:00 PM</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Apr 13, 12:00PM</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1107015795</v>
+        <v>881118640</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -907,30 +911,30 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Beautiful and well maintained  home in Cedarwood Meadows with 4 bedrooms and 2.5 bathrooms! Two story foyer, upgraded kitchen with eat in area, living and dining room, half bathroom, family room with masonry fireplace and a rear sunroom with a vaulted wood ceiling are on the main level. Upstairs has a primary en-suite and 3 additional bedrooms and a  full bathroom. Large landscaped corner lot with a semi-circular driveway, covered front porch, vinyl fencing around the backyard with rear deck and patio. There&amp;rsquo;s a 2 car side loading garage and shed with electricity for extra storage. This is a must see, make an appointment today!</t>
+          <t>Beautiful quality all brick rancher in Heritage Estates. This 4-5BR rancher is larger than it looks boasting almost 6,000 sq ft of living space!  this home is the perfect place for entertaining, single level living, all the while being close to downtown amenities!  Take a tour for yourself and see the quality built features that has been newly painted throughout, beautiful wood trim, cathedral ceilings, oversized two car garage with ample storage areas, large closets and more!  Step down to the lower level that has been completely finished with new plank flooring, paint and lighting fixtures. Complete with a movie room or convert one of the other rooms into a bedroom or two!  Fully equipped</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>CEDARWOOD MEADOWS</t>
+          <t>HERITAGE ESTATES</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>39.7489914</v>
+        <v>39.7867264</v>
       </c>
       <c r="W5" t="n">
-        <v>-77.7592673</v>
+        <v>-77.71975550000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PAFL2018756</t>
+          <t>PAFL2026558</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>585 Meadowview Cir</t>
+          <t>11425 Nicole Dr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -944,18 +948,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>349900</v>
+        <v>239900</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1202</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -972,21 +974,21 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1977</v>
+        <v>2002</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/585-Meadowview-Cir-17225/home/53523591</t>
+          <t>https://www.redfin.com/PA/Greencastle/11425-Nicole-Dr-17225/home/53514456</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Open House - 12:00 - 1:00 PM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Apr 6, 12:00PM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -994,8 +996,10 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R6" t="n">
-        <v>1</v>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1004,30 +1008,30 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>BEAUTIFUL BRICK RANCHER IN THE MOSS SPRINGS SUBDIVISION! This all-brick rancher has many features including 4 bedrooms, 2.5 baths, living room, family room, kitchen, dining room, 2 car garage, full basement, and more! The home also features a large covered rear porch. A new 30 year roof was installed on the home in 2018. The home sits on a beautiful lot. Conveniently located near Greencastle with much to offer including restaurants, shopping, schools, parks, and more! Come and make this home your own! This property will be offered at auction on Thursday, April 18, 2024  @ 3:00PM.</t>
+          <t>GREAT LOCATION, EASY ACCESS, JUST THE RIGHT SIZE TO START WITH YOUR FIRST HOME OR DOWNSIZE IN GREENCASTLE. 2BR, 2BA. 1202 SF. Foyer opening into spacious living/dining area with laminated floor. Sliding door opens to small deck area. Kitchen w/ new stainless steel refrigerator, electric smooth top stove, built-in microwave, built-in stainless steel dishwasher  &amp;  pantry. Primary BR w/ dual vanity  &amp;  shower. Hall bath w/ shower/tub. Separate laundry rm. Single garage w/ door opener. Backs to trees (neighbors). Privacy divider in back and privacy fence on side all belong to neighbors. Foundation is crawl space. Just a cute place waiting for You!  Schedule your showing today!</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>MOSS SPRING ESTATES</t>
+          <t>SHADOW CREEK MEADOWS</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>39.7955532</v>
+        <v>39.7799734</v>
       </c>
       <c r="W6" t="n">
-        <v>-77.71894020000001</v>
+        <v>-77.73801020000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PAFL2018722</t>
+          <t>PAFL2026534</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10425 Hades Church Rd S</t>
+          <t>14854 Sherwood Dr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1041,59 +1045,57 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>199900</v>
+        <v>179900</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1408</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>1992</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/14854-Sherwood-Dr-17225/home/195308433</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Open House - 10:00 - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Apr 26, 10:00AM</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1981</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>https://www.redfin.com/PA/Greencastle/10425-Hades-Church-Rd-17225/home/53514937</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>559132023</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1101,30 +1103,30 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>&amp;ldquo;This property has been placed in an upcoming online event. All bids should be submitted at xome.com (void where prohibited). All offers received prior to the event period should be submitted by the buyer or buyer's agent by clicking on the &amp;ldquo;Make Offer&amp;rdquo; button on the Property Details page on Xome.com. All offers will be reviewed and responded to within 3 business days. All properties are subject to a 5% buyer&amp;rsquo;s premium pursuant to the Auction Participation Agreement and Terms  &amp;amp;  Conditions (minimums will apply). Please contact listing agent for details and commission paid on this property. &amp;rdquo;</t>
+          <t>NICE HOME IN GREENCASTLE, PA! This great property features 3 bedrooms, 1.5 bathrooms, kitchen, dining area, living room, laundry area, and a one-car garage. Conveniently located just minutes from Route 11 and I-81, offering easy access to wherever you need to go. The home is currently leased on a month-to-month basis. Roof is less than 10 years old and water softener installed just last year! The adjoining property at 14852 is also available and will be offered the same day—buy one side or both! This property will be offered at auction on Monday, May 5, 2025, at 4:30 PM. The List price in no way represents a minimum, starting, or acceptable bid.</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>SHERWOOD</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>39.7936705</v>
+        <v>39.7357516</v>
       </c>
       <c r="W7" t="n">
-        <v>-77.656722</v>
+        <v>-77.7282556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PAFL2018734</t>
+          <t>PAFL2026532</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>235 Tyrone St</t>
+          <t>14852 Sherwood Dr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1138,57 +1140,57 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>237000</v>
+        <v>179900</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1408</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/14852-Sherwood-Dr-17225/home/53517005</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Open House - 10:00 - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Apr 26, 10:00AM</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1960</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>https://www.redfin.com/PA/Greencastle/235-Tyrone-St-17225/home/53523888</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>566737773</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1196,30 +1198,30 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>EASY LIVING - FOR ANY CHAPTER OF LIFE!!! Everything on ONE LEVEL!! Oversized Bedrooms and Laundry / Bathroom Combo - The Home has a Great Functional Flow!! Enjoy being Close to Everything; Shopping, Restaurants, and Parks!! Lots of Off-Street Parking and a Spacious Yard for BBQ / Entertainment FUN!!! Enjoy the Beauty of the Seasons from the Front or Back Porch!! Roof was Replaced in 2015 and Owner just installed Beautiful New Doors! Natural Gas Heat makes the cold moths Affordable! Move-In with Ease!! This house is Ready to be called Home!</t>
+          <t>NICE HOME IN GREENCASTLE, PA! This great property features 3 bedrooms, 1.5 bathrooms, kitchen, dining area, living room, laundry area, and a one-car garage. Conveniently located just minutes from Route 11 and I-81, offering easy access to wherever you need to go. The home is currently leased on a month-to-month basis. Roof is less than 10 years old and water softener installed just last year! The adjoining property at 14854 is also available and will be offered the same day—buy one side or both! This property will be offered at auction on Monday, May 5, 2025, at 4:30 PM. The List price in no way represents a minimum, starting, or acceptable bid.</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>GREENCASTLE BOROUGH</t>
+          <t>SHERWOOD</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39.7927599</v>
+        <v>39.7358673</v>
       </c>
       <c r="W8" t="n">
-        <v>-77.72135489999999</v>
+        <v>-77.7280726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PAFL2018718</t>
+          <t>PAFL2026528</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1155 Briarbend Way</t>
+          <t>878 Joy Dr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1233,18 +1235,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>365000</v>
+        <v>450000</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4900</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1255,15 +1255,17 @@
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="n">
-        <v>4</v>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
       </c>
       <c r="M9" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/1155-Briarbend-Way-17225/home/53515039</t>
+          <t>https://www.redfin.com/PA/Greencastle/878-Joy-Dr-17225/home/53515564</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1281,10 +1283,8 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="R9" t="n">
+        <v>1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1293,30 +1293,30 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>This charming house located in the fantastic Greencastle neighborhood offers an ideal living space. With three bedrooms on the main level, there's plenty of room for family and guests. Additionally, the lower level is finished and includes a dedicated office space, which could easily be utilized as a fourth bedroom, providing versatility to accommodate various needs. One of the notable features of this well-maintained home is its fresh paint, giving it a clean and modern look throughout. The fresh paint not only enhances the aesthetic appeal but also signifies the care and attention given to the property. The house is equipped with a water osmosis system, ensuring clean and safe drinking wa</t>
+          <t>This 4 Bedroom 3 and a half house has a lot to offer. It has over 4,000 square feet of living space including a finished basement. There is quite a bit of hard wood flooring throughout the main level. Schedule your tour of this home before it is gone.</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>SHADOW CREEK</t>
+          <t>ANTRIM MEADOWS</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>39.7794655</v>
+        <v>39.7727546</v>
       </c>
       <c r="W9" t="n">
-        <v>-77.7404915</v>
+        <v>-77.7429702</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PAFL2018710</t>
+          <t>PAFL2026524</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0 Delanie Dr</t>
+          <t>1923 Shannon Drive South</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>568000</v>
+        <v>559990</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -1339,7 +1339,7 @@
         <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2858</v>
+        <v>3571</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1360,21 +1360,21 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/Delanie-Dr-17225/home/170108094</t>
+          <t>https://www.redfin.com/PA/Antrim-Township/1923-Shannon-Dr-S-17225/home/195283409</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open House - 1:00 - 3:00 PM</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Apr 13, 1:00PM</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>761793120</v>
+        <v>385616971</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
@@ -1386,30 +1386,30 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO BE BUILT NEW CONSTRUCTION!!!  Beautiful lot Co- Marketed with Caruso Homes. This Model is the ---EMORY II--- The popular Emory II plan is a single family home starting at 2,858 square feet, with option to expands up to 5,431 square feet of living space. The home has a two car garage and many elevations, including brick and stone combination fronts and craftsman styles. Inside, the home comes standard with 4 bedrooms and 2.5 baths with the option to add an additional bedroom and full bath in the basement. This dream home offers many upgrades such as a gourmet kitchen, stone or modern fireplace and a grand owner suite with optional spa bath. Choose from hundreds of features to personalize </t>
+          <t xml:space="preserve">This QUICK-DELIVERY, fully-loaded, HUDSON, at The Greens of Greencastle, fits the way you live and will be ready for your family, this summer!  Enter this gorgerous 4 bedroom, 3.5 bath home, from the full front porch and just inside, the flex space can be used as a library, an additional sitting room and more. Get cozy in the spacious family room, w/ remote-controlled gas fireplace; it flows effortlessly into the dining room and gourmet kitchen, so you never miss a conversation. The kitchen features LVP flooring, upgraded cabinets, stainless steel appliances, a walk-in bulk pantry, an extensive island, and beautifully-tiled backsplash. Off the 2-car garage, a family arrival center controls </t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>HERITAGE ESTATES WEST</t>
+          <t>GREENCASTLE GREENS</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>39.798018</v>
+        <v>39.807078</v>
       </c>
       <c r="W10" t="n">
-        <v>-77.736284</v>
+        <v>-77.748456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PAFL2018656</t>
+          <t>PAFL2025928</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>514 S S Carlisle St</t>
+          <t>74 Homestead Dr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1423,16 +1423,18 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>237900</v>
+        <v>269900</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1716</v>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No sq ft provided</t>
+        </is>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1443,34 +1445,36 @@
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
-        <v>85</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
       </c>
       <c r="M11" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/514-S-Carlisle-St-17225/home/53556930</t>
+          <t>https://www.redfin.com/PA/Greencastle/74-Homestead-Dr-17225/home/53523111</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open House - 5:00 - 6:00 PM</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
+          <t>Apr 23, 5:00PM</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>993153208</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1479,30 +1483,30 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Incredible opportunity! Beautiful twin home in Chadwick Estates! This home features 2 Bedrooms, 2 Bathrooms, and an open floor plan with lots of living space. The central A/C was updated in 2018 and the roof is nearly new, having been replaced in 2024! This home is in great condition and ready for new owners to enjoy. This property will be offered at auction on Tuesday April 29, 2025 @ 4:30 pm. The List price in no way represents a minimum, starting, or acceptable bid.</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>ANTRIM CROSSING</t>
+          <t>CHADWICK ESTATES</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>39.7824664</v>
+        <v>39.7999708</v>
       </c>
       <c r="W11" t="n">
-        <v>-77.7319408</v>
+        <v>-77.7359259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A3DA5D52D20B</t>
+          <t>PAFL2026406</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Birch Attached Plan</t>
+          <t>1068 Briarbend Way</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1516,39 +1520,35 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>309990</v>
+        <v>599000</v>
       </c>
       <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4968</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>4</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1680</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M12" t="n">
+        <v>2007</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Birch-Attached/home/189919495</t>
+          <t>https://www.redfin.com/PA/Greencastle/1068-Briarbend-Way-17225/home/53514975</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>974385408</v>
+        <v>758737586</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
@@ -1574,30 +1574,30 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Situated on a nearly 3/4 acre lot in Shadow Creek Estates, this residence has over 4,900 sq ft of impressive living space at an incredible $122 per sq ft. This stately home features 5 bedrooms and 4.5 baths, including a primary suite with dual walk-in closets, a two-sided gas fireplace, and a sitting area. Three additional bedrooms offer ensuite baths, while the remaining two share a convenient hall bath. The grand foyer, with its winding staircase and hardwood floors, sets the tone for the home's appeal! The gourmet kitchen, featuring brand-new refrigerator, cooktop, dishwasher, and high-end double ovens, adjoins, flows into the sunroom, perfect for both everyday cooking and entertaining. </t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>SHADOW CREEK ESTATES</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>39.797315</v>
+        <v>39.7786625</v>
       </c>
       <c r="W12" t="n">
-        <v>-77.77501700000001</v>
+        <v>-77.73970559999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PAFL2018648</t>
+          <t>PAFL2025960</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2510 Raeann Dr</t>
+          <t>714 Ryan Ln</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1611,16 +1611,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>309990</v>
+        <v>349900</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1680</v>
+        <v>2456</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1629,31 +1629,33 @@
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
       </c>
       <c r="M13" t="n">
-        <v>2024</v>
+        <v>1981</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Antrim-Township/2510-Raeann-Dr-17225/home/189917333</t>
+          <t>https://www.redfin.com/PA/Greencastle/714-Ryan-Ln-17225/home/53515077</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Open House - 12:00 - 3:00 PM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Mar 10, 12:00PM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>1011404098</v>
+        <v>2033400485</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
@@ -1665,30 +1667,30 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>This is the To-Be-Built BIRCH at Rolling Hills! The Birch includes an unfinished basement, kitchen appliances, a washer and dryer, and a new home warranty! Enter through the 2-car garage or foyer and find a light-filled, airy floor plan. The great room flows into the dinette and kitchen area so you never miss a moment with friends or family around the spacious island. Upstairs, the generous space continues, with a broad stairway that leads to an open landing, 3 extra bedrooms with ample closet space and a full bath. Enjoy the convenience of the laundry room upstairs with the bedrooms and the included washer and dryer! The luxurious owner&amp;rsquo;s suite, with its walk-in closet and dual vanit</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>ROLLING HILLS</t>
+          <t>Greencastle</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>39.79856559</v>
+        <v>39.7881245</v>
       </c>
       <c r="W13" t="n">
-        <v>-77.77343257</v>
+        <v>-77.7018834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PAFL2018646</t>
+          <t>PAFL2026330</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2012 Raeann Dr</t>
+          <t>4222 Shannon Drive South</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1702,16 +1704,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>299990</v>
+        <v>546990</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>1440</v>
+        <v>3371</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1723,28 +1725,30 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>17</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2024</v>
+        <v>70</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Antrim-Township/2012-Raeann-Dr-17225/home/189916357</t>
+          <t>https://www.redfin.com/PA/Greencastle/4222-Shannon-Dr-S-17225/home/195221744</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Open House - 12:00 - 3:00 PM</t>
+          <t>Open House - 1:00 - 3:00 PM</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Mar 10, 12:00PM</t>
+          <t>Apr 13, 1:00PM</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>1012733721</v>
+        <v>1049710527</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1758,30 +1762,30 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>The TO BE BUILT ASPEN single-family home has it all. Enjoy the luxury and owning a brand new home that features all included kitchen appliances, a washer and dryer, a spacious backyard, a basement, and a new home warranty! Enter the huge great room and immediately feel at home. The first floor's open concept means you are never far from the action. A cozy kitchen features an optional island; add a powder room for convenience. The entry off the garage provides a convenient spot for coats, so clutter is never an issue. Enjoy the views from your beautiful backyard! Upstairs all 3 bedrooms are large and boast ample closets. A hall bath and laundry room provide total comfort and convenience! The</t>
+          <t>The ever-so-popular Corsica, w/ GREAT SAVINGS, at The Greens of Greencastle! This To-Be-Built Corsica, has a floorplan you'll just love! Enjoy your home situated on a stunning golf course with beautiful views! Enter through the family entry off the 2-car garage or the stately front porch. With 9' ceilings on the first floor, the inviting foyer directs you to a formal dining room and stunning great room. This impressive space flows seamlessly into the gourmet kitchen with an expansive island and walk-in pantry, featuring an upgraded interior design package, cabinets and appliances. Also on the first floor, an additional bedroom and full bath can accommodate guests or would be perfect for agi</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>ROLLING HILLS</t>
+          <t>GREENCASTLE GREENS</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>39.79860484</v>
+        <v>39.80414034</v>
       </c>
       <c r="W14" t="n">
-        <v>-77.77417953</v>
+        <v>-77.74961768999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PAFL2018234</t>
+          <t>PAFL2026328</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>481 Buchanan Trail West</t>
+          <t>4221 Shannon Drive South</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1795,18 +1799,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220000</v>
+        <v>489990</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>3.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2454</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1815,38 +1817,36 @@
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1940</v>
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>70</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/481-Buchanan-Trl-W-17225/home/53514376</t>
+          <t>https://www.redfin.com/PA/Greencastle/4221-Shannon-Dr-S-17225/home/195221705</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open House - 1:00 - 3:00 PM</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Apr 13, 1:00PM</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>2750365529</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1051080006</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1855,30 +1855,30 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Offering  incredible savings on this Home of the Month at The Greens of Greencastle!! Absolutely stunning single family home with ample space for family and friends! This To-Be-Built POWELL, sets the stage for great living! Enter through a charming, full front porch or your 2-car garage. Inside, an open floorplan is designed for how today's families live. This open floorplan allows you to prep dinner in the gourmet kitchen w/ upgraded cabinets and interior design package. The beautiful kitchen boasts a gas range, an upgraded appliance package and an expansive island, which overlooks the dining and family rooms, featuring 9' ceilings! LVP flooring on the entire first floor, enhances the flow</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>GREENCASTLE ANTRIM TWP</t>
+          <t>GREENCASTLE GREENS</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>39.793149</v>
+        <v>39.80413492</v>
       </c>
       <c r="W15" t="n">
-        <v>-77.73654399999999</v>
+        <v>-77.74574883</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PAFL2018362</t>
+          <t>PAFL2025752</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>497 S Carlisle St</t>
+          <t>13176 Gearhart Rd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>229900</v>
+        <v>415000</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
@@ -1901,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>1336</v>
+        <v>2592</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1918,11 +1918,11 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1940</v>
+        <v>1985</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/497-S-Carlisle-St-17225/home/53524052</t>
+          <t>https://www.redfin.com/PA/Greencastle/13176-Gearhart-Rd-17225/home/53515635</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1935,8 +1935,10 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>1962106690</v>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1950,7 +1952,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Welcome home to this quaint newly renovated, 3 bedroom 2 full bath home on a quiet street in Greencastle. This beauty comes equipped with all the features you could imagine including a 1-car detached garage and a brand new Trane HVAC system installed. Enjoy traditional style living with the family room off of the kitchen, separate dining room that could be converted into an office or 4th bedroom, updated kitchen with new stainless steel appliances, new granite countertops, new luxury vinyl plank flooring throughout the main level, main level updated full bathroom with laundry available. The upper level features new wall-to-wall carpet in the bedrooms and another updated full bathroom with l</t>
+          <t>Photos coming soon! Welcome to this charming Brick Rancher! Nestled on just over an acre of land, this inviting 3-bedroom, 2-bathroom home offers the perfect blend of country living and convenience. Enjoy stunning countryside views while being just minutes away from major commuting routes and the Maryland line. The spacious kitchen is a highlight, featuring ample counter space perfect for meal preparation and family gatherings. The front living room boasts large windows, bringing in natural light and offering beautiful views of the surrounding landscape. The cozy family room is warmed by a propane gas stove, creating a comfortable and inviting atmosphere. Additionally, a sunroom and flexibl</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -1959,21 +1961,21 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>39.782055</v>
+        <v>39.7626383</v>
       </c>
       <c r="W16" t="n">
-        <v>-77.7335616</v>
+        <v>-77.6835277</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PAFL2018508</t>
+          <t>PAFL2025110</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3310 Raeann Dr</t>
+          <t>14074 Timothy Dr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1987,16 +1989,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>324990</v>
+        <v>200000</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1903</v>
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No sq ft provided</t>
+        </is>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -2005,34 +2009,38 @@
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
       </c>
       <c r="M17" t="n">
-        <v>2024</v>
+        <v>1995</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Antrim-Township/3310-Raeann-Dr-17225/home/189105343</t>
+          <t>https://www.redfin.com/PA/Greencastle/14074-Timothy-Dr-17225/home/53024428</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Open House - 12:00 - 3:00 PM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Mar 10, 12:00PM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>1635775308</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
+        <v>3118377660</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2041,30 +2049,30 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Welcome to the TO BE BUILT CEDAR with a basement at the beautiful Rolling Hills community!! This home already includes all of your kitchen appliances, a washer and dryer, luxury vinyl plank flooring, a full unfinished basement, a spacious backyard, and a new home warranty!! The Cedar blends function and elegance. Enter the foyer and head to the great room, which flows effortlessly into the gourmet kitchen with island, and the dining area. This open concept floor plan will make you feel comfortable and right at home. Beyond that, a hall leads to a powder room and flex space that can be convert into an office or extra play room! Enjoy your spacious backyard however you please! Upstairs 3 of t</t>
+          <t>Property back on market due to no fault of seller. Well taken care of home in Greencastle; super convenient to I-81 on a quiet cul-de-sac. .  In the short time the seller has owned this home; she has done so much!  Roof was replaced Nov. 2023, The windows in bedrooms have been re-placed. The bath  has been renovated with a new sink, commode and the tub has been re-surfaced by Miracle Method. Washer and Dryer were purchased when seller moved in. Property has a self emptying de-humidifier, new insulation and protective floor in the crawl space. the deck has been updated. New lighting. Pest Control contract with local Orkin franchise. The perfect  size. Spacious 2 bedroom one full bath home wi</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>ROLLING HILLS</t>
+          <t>Greencastle</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>39.79863921</v>
+        <v>39.745719</v>
       </c>
       <c r="W17" t="n">
-        <v>-77.77385554</v>
+        <v>-77.723742</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PAFL2018346</t>
+          <t>PAFL2025874</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3621 Oakley Ln</t>
+          <t>270 Paradise View Dr</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2078,7 +2086,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>270000</v>
+        <v>485000</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
@@ -2087,7 +2095,7 @@
         <v>2.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1866</v>
+        <v>2200</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -2099,14 +2107,14 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/3621-Oakley-Ln-17225/home/53052648</t>
+          <t>https://www.redfin.com/PA/Greencastle/270-Paradise-View-Dr-17225/home/184647410</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2120,7 +2128,7 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>2071392863</v>
+        <v>2649345741</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2132,30 +2140,30 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Beautifully maintained and spacious home in the desirable Rolling Hills community. This 4 bedroom, 2.5 bath home features gorgeous Pergo laminate flooring, crown molding, an open living area perfect for entertaining, a spacious kitchen with granite countertops and upgraded appliances, main floor laundry, and a main floor owner's suite complete with a walk-in closet and attached bathroom. The second floor features three additional spacious bedrooms including one with a walk-in closet, and an additional full bathroom. Outdoors features a rear patio and open, fenced-in backyard&amp;nbsp;perfect for outdoor enjoyment and entertaining. New hot water heater installed in 2021 and all kitchen appliance</t>
+          <t>Beautiful Like-New Home with Stunning Country Views! This spacious 4-bedroom home offers modern comfort in a serene country setting, just minutes from Hagerstown. Enjoy peaceful mornings on the front porch and relax on the back deck while taking in country views. Large basement ready to be finished, has rough-in plumbing for possible bathroom. Hop on nearby Route 81 for easy commuting to Hagerstown, MD, and take a short drive to nearby shopping centers, where you can find everything from boutiques to big-box stores. With a prime location close to town yet tucked away in nature, this home is the perfect blend of convenience and tranquility. Don’t miss this opportunity—schedule yo</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>ROLLING HILLS</t>
+          <t>PARADISE ESTATES</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>39.7989264</v>
+        <v>39.748239</v>
       </c>
       <c r="W18" t="n">
-        <v>-77.7757605</v>
+        <v>-77.76306700000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PAFL2018298</t>
+          <t>PAFL2026070</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1245 Shannon Dr S</t>
+          <t>762 Bristol Dr</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2169,16 +2177,18 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>559900</v>
+        <v>389900</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1998</v>
+        <v>2.5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No sq ft provided</t>
+        </is>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -2187,39 +2197,35 @@
         <v>0</v>
       </c>
       <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/762-Bristol-Dr-17225/home/113568788</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>1946469203</v>
+      </c>
+      <c r="R19" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>2024</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>https://www.redfin.com/PA/Greencastle/1245-Shannon-Dr-S-17225/home/184621363</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>2483827605</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2227,53 +2233,53 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Beautiful 4 bedrm, ,  2.5 bath Colonial in great neighborhood, model home for Ryan Homes. New LVT flooring on the main floor, new carpet upstairs. New lighting, window treatments convey, built in shelving in garage. Master bedroom has 2 walk-in closets. New wrap around back  patio, approx. 542 sq. ft. All appliances are in working condition and convey as-is. HOA is $50/year to cover maintenance on storm retention ponds, insurance and other community costs. Home Warranty provided for buyers peace of mind</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>FAIRWAYS AT GREENCASTLE GREENS</t>
+          <t>NOTTINGHAM MEADOWS</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>39.8013313</v>
+        <v>39.731239</v>
       </c>
       <c r="W19" t="n">
-        <v>-77.7388705</v>
+        <v>-77.73536319999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PAFL2018236</t>
+          <t>PAFL2025946</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4086 Warm Spring Rd</t>
+          <t>236 Scarlet Cir</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Chambersburg</t>
+          <t>Greencastle</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17202</t>
+          <t>17225</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>459900</v>
+        <v>466900</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3881</v>
+        <v>4000</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -2290,11 +2296,11 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1978</v>
+        <v>2009</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Chambersburg/4086-Warm-Spring-Rd-17202/home/53546934</t>
+          <t>https://www.redfin.com/PA/Greencastle/236-Scarlet-Cir-17225/home/53514322</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2308,7 +2314,7 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>2678305001</v>
+        <v>2466990805</v>
       </c>
       <c r="R20" t="n">
         <v>1</v>
@@ -2320,30 +2326,30 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Experience country living in this exquisite home boasting three bedrooms, 2 1/2 baths, situated on 2.49 acres and adorned with breathtaking panoramic mountain views! This home showcases a spacious, open-concept chef's kitchen, complete with a built-in range nestled within the island, seamlessly connected to the dining area for effortless entertaining. Enjoy the comfort of your primary bedroom, complete with an adjoining full bath and a delightful sunroom attached, providing a serene sanctuary for your relaxation and enjoyment. Laundry day becomes a breeze with the convenience of having a washer and dryer conveniently situated on each floor of the home. On the lower level, you'll find a beau</t>
+          <t>*  *  *  NEW PRICE  *  *  * Need more space? Then this home is a must-see! This home offers an open concept kitchen and living room, along with a formal dining area and an additional room that could be a formal sitting area. The second floor boasts an oversized master suite w/ walk ins, 3 additional spacious bedrooms, a full bath, and second-floor laundry! The lower level options are endless, offering a fully finished living space for an additional family or recreation room. Lower level has closet space for additional storage, and a utility room with/ a sink. If you enjoy entertaining, then the backyard patio area and privacy fencing is perfect! A fully fenced yard is also a bonus for child</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>ST THOMAS TWP</t>
+          <t>RED OAK ESTATES</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>39.8647211</v>
+        <v>39.7994633</v>
       </c>
       <c r="W20" t="n">
-        <v>-77.771805</v>
+        <v>-77.7176216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PAFL2017870</t>
+          <t>PAFL2025870</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1111 Divinity Dr</t>
+          <t>3026 Shannon Drive South</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2357,16 +2363,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>589900</v>
+        <v>349990</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>2805</v>
+        <v>1555</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2375,34 +2381,38 @@
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>21</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2023</v>
+        <v>137</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/1111-Divinity-Dr-17225/home/160631051</t>
+          <t>https://www.redfin.com/PA/Greencastle/3026-Shannon-Dr-S-17225/home/195009025</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open House - 1:00 - 3:00 PM</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Apr 13, 1:00PM</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>4563113354</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
+        <v>2722108664</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2411,30 +2421,30 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>The home includes a primary bedroom on the first floor, providing convenience and accessibility. It offers privacy and comfort and includes your bathroom suite with walk-in closet. The main level of the home features an open floor plan, creating a spacious and flowing layout. This design concept promotes a sense of connection between different areas, such as the living room, dining room, and kitchen. The fireplace serves as a focal point in the living space with built in shelving. Near the entry from the garage, you will find more built ins that can be used to organize shoes, jackets, bags, or other items, helping to keep the space tidy and clutter-free. The kitchen is equipped with two pan</t>
+          <t>The to-be-built Caicos Ranch Villa at The Greens of Greencastle — live like you’re on vacation, at home! Convenience and comfort rule inside this one-level home. An open kitchen and great room will host a gathering with ease or welcome you home after an activity-filled day. The spacious owner’s suite and secondary bedrooms provide a peaceful sanctuary. And the main-level flex space and basement can be whatever you need—office, storage or more space for family visits. You can finish the basement for more living space. When easy living and less maintenance are fundamental, every day is more relaxing. The Greens of Greencastle is an established community w/ gorgeous gol</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>HERITAGE ESTATES</t>
+          <t>GREENCASTLE GREENS</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>39.798661</v>
+        <v>39.8026117</v>
       </c>
       <c r="W21" t="n">
-        <v>-77.738623</v>
+        <v>-77.7437726</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PAFL2017202</t>
+          <t>PAFL2025856</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>200 N N Allison Street St N</t>
+          <t>3011 Shannon Drive South</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2448,16 +2458,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220000</v>
+        <v>309990</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>2056</v>
+        <v>1369</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2466,33 +2476,33 @@
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1920</v>
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>137</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/200-N-Allison-St-17225/home/53046854</t>
+          <t>https://www.redfin.com/PA/Greencastle/3011-Shannon-Dr-S-17225/home/195001214</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open House - 1:00 - 3:00 PM</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Apr 13, 1:00PM</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>8728721221</v>
+        <v>2798243032</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2506,30 +2516,30 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>A beautiful colonial home sitting on a large corner lot with detached garage and large yard is just waiting for you to call it home!  Built in 1920, this home features original woodwork, gorgeous windows and so much character including the original cast iron kitchen sink. With 4 bedrooms and 2 full bathrooms there is plenty  of space to have a home full of charm. Home is being sold AS- IS.</t>
+          <t>The to-be-built BARBADOS ISLE VILLA, at The Greens of Greencastle, is a paradise of main-level living. Enter through the grand foyer or 2-car garage and find a spacious floor plan offering plenty of room to entertain. In the gourmet kitchen, an island and dinette open to the great room, providing abundant space for hosting family and friends. 2 comfortable bedrooms and a full bath are ideal for overnight guests. Inside your luxury owner’s suite, with its massive walk-in closet and dual vanity bath, you’ll feel like every day is a vacation. Finish the lower level for even more living space. You’ll love coming home to the Barbados Isle. The Greens of Greencastle is an establ</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>GREENCASTLE GREENS</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>39.7923677</v>
+        <v>39.8030244</v>
       </c>
       <c r="W22" t="n">
-        <v>-77.7228752</v>
+        <v>-77.7439617</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PAFL2017660</t>
+          <t>PAFL2025850</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23 N Jefferson St</t>
+          <t>5666 Makayla Dr</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2543,58 +2553,54 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>140000</v>
+        <v>499990</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3371</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1961</v>
+      <c r="L23" t="n">
+        <v>70</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/23-N-Jefferson-St-17225/home/53523639</t>
+          <t>https://www.redfin.com/PA/Greencastle/5666-Makayla-DR-17225/home/194998785</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open House - 1:00 - 3:00 PM</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Apr 13, 1:00PM</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>5597543641</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>2812471041</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2603,30 +2609,30 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>* SHORT SALE *  Buyer pays $5K loss mitigation fee. This 2 Bedroom, 1 bathroom property in the Greencastle-Antrim School District. Home offers large eat in kitchen, hardwood floors in the main living area, fully enclosed fenced yard and deck style patio. Laundry hook up on main living level of home.</t>
+          <t>The ever-so-popular Corsica floorplan is a new addition to the community! The To-Be-Built Corsica, at The Greens of Greencastle, has a floorplan you'll love! Enjoy your home situated on a stunning golf course with beautiful views! Enter through the family entry off the 2-car garage or the stately front porch. With 9' ceilings on the first floor, the inviting foyer directs you to a formal dining room, a front living room and a stunning great room. This impressive space flows seamlessly into the gourmet kitchen with an expansive island and walk-in pantry. Upstairs, a loft is great for entertaining, while 3 other spacious bedrooms and a full bath offer private comfort for your guests or family</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>GREENCASTLE GREENS</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>39.7911048</v>
+        <v>39.80433678</v>
       </c>
       <c r="W23" t="n">
-        <v>-77.7292245</v>
+        <v>-77.74970531</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PAFL2017464</t>
+          <t>PAFL2025846</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>543 Buchanan Trail West W</t>
+          <t>3666 Shannon Drive South</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2640,18 +2646,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>269900</v>
+        <v>444990</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>2.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2454</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2660,38 +2664,36 @@
         <v>0</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1900</v>
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>70</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/543-Buchanan-Trl-W-17225/home/53514565</t>
+          <t>https://www.redfin.com/PA/Greencastle/3666-Shannon-Dr-S-17225/home/194998519</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open House - 1:00 - 3:00 PM</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Apr 13, 1:00PM</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>6384988446</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>2814256270</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2700,30 +2702,30 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Don't miss out on this amazing opportunity! This charming home in Greencastle, PA has everything you could want and the ability to make it your own. It features three bedrooms, two bathrooms, and an office space. But wait, there's more! This home also boasts a beautiful wraparound porch where you can relax and enjoy the fresh air. Plus, there's a convenient carport to keep your vehicle protected from the elements. And if that's not enough, there are two detached garages for all your storage and tinkering needs. The cherry on top is the lovely garden, perfect for those with a green thumb or anyone who loves spending time outdoors. With so much space and opportunity, this place is just waitin</t>
+          <t xml:space="preserve">Absolutely stunning single family home with ample space for family and friends! The To-Be-Built POWELL, at The Greens of Greencastle, sets the stage for great living! Enter through a charming front porch or your 2-car garage. Inside, an open floorplan is designed for how today's families live. This open floorplan allows you to prep dinner at the gourmet kitchen island, which overlooks the dining and family rooms, boasting 9' ceilings! The versatile flex space can be used however you like, including a home office. Upstairs, your luxurious and spacious owner's suite includes two massive walk-in closets and a walk-in shower with optional soaking tub and double bowl vanity in the owner's bath. </t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>GREENCASTLE GREENS</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>39.7924224</v>
+        <v>39.8043953</v>
       </c>
       <c r="W24" t="n">
-        <v>-77.7382114</v>
+        <v>-77.74580176000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B61C35F4D842</t>
+          <t>PAFL2025664</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Roosevelt Plan</t>
+          <t>249 Allison St</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2737,16 +2739,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>427990</v>
+        <v>249000</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>2500</v>
+        <v>1415</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2755,21 +2757,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>No HOA fee</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M25" t="n">
+        <v>1900</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Roosevelt/home/188426033</t>
+          <t>https://www.redfin.com/PA/Greencastle/249-S-Allison-St-17225/home/53524352</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2783,10 +2783,12 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>11034212313</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1</v>
+        <v>3408261937</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2795,30 +2797,30 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Move into this lovely 1,415 sq. ft. home  just a block away from the Greencastle-Antrim School Complex. Easy to own. Why rent? The 1st floor features a great room with laminate flooring, a kitchen with new appliances and granite countertops with tile flooring, laundry room and half bath. 2nd floor features 3 wall-to-wall carpeted bedrooms, 2 full bath with ceramic tiled shower  &amp;  tub. Large attic could be finished for a 4th bedroom. Walkout basement, garage space. Dutch Lap Siding  &amp;  new Insulation. All new gutters, downspouts, soffit, new solid wood front/rear doors. New system upgrades include gas furnace, central air, smoke detectors, plumbing and wiring. Sunny southern exposur</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>GREENCASTLE BOROUGH</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>39.746873</v>
+        <v>39.7847879</v>
       </c>
       <c r="W25" t="n">
-        <v>-77.763538</v>
+        <v>-77.7260919</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>46A6D9C19CF6</t>
+          <t>PAFL2025424</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cedar Attached Plan</t>
+          <t>229 N Linden Ave N #1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2832,16 +2834,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>324990</v>
+        <v>385000</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>1903</v>
+        <v>2632</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2850,21 +2852,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>No HOA fee</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M26" t="n">
+        <v>1784</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Cedar-Attached/home/188420732</t>
+          <t>https://www.redfin.com/PA/Greencastle/229-N-Linden-Ave-17225/unit-1/home/194837542</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2878,10 +2878,12 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>11034476383</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1</v>
+        <v>4077836472</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2895,25 +2897,25 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>GREENCASTLE BOROUGH</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>39.797315</v>
+        <v>39.791824</v>
       </c>
       <c r="W26" t="n">
-        <v>-77.77501700000001</v>
+        <v>-77.7182583</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2E045D10B17D</t>
+          <t>PAFL2025496</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Raleigh Plan</t>
+          <t>1245 Shannon Dr S</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2927,16 +2929,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>421990</v>
+        <v>495000</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>2293</v>
+        <v>1998</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2952,31 +2954,31 @@
           <t>No HOA fee</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M27" t="n">
+        <v>2024</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Raleigh/home/188412035</t>
+          <t>https://www.redfin.com/PA/Greencastle/1245-Shannon-Dr-S-17225/home/184621363</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open House - 12:00 - 2:00 PM</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Apr 13, 12:00PM</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>11034724747</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1</v>
+        <v>4186155535</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2985,30 +2987,30 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Welcome to this stunning, custom-built rancher offering nearly 2,000 square feet of luxurious living space. This home features three spacious bedrooms, luxury vinyl plank flooring, and elegant granite countertops. The kitchen boasts beautiful slate gray cabinets, perfect for the open-concept design. The family room, complete with a tray ceiling and a stone gas fireplace, provides a warm and inviting atmosphere. The home also includes a three-car garage and is situated on a . 34-acre lot. The walkout basement, filled with natural light from ample windows, is rough-plumbed for a full bath—offering endless potential. The primary suite is a true retreat, featuring two walk-in closets and </t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>FAIRWAYS AT GREENCASTLE GREENS</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>39.746873</v>
+        <v>39.8013313</v>
       </c>
       <c r="W27" t="n">
-        <v>-77.763538</v>
+        <v>-77.7388705</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2D5EBB2A3C1A</t>
+          <t>PAFL2025244</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hamilton Plan</t>
+          <t>841 Rutherford Dr</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3022,39 +3024,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>402990</v>
+        <v>239900</v>
       </c>
       <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>920</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>4</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1916</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M28" t="n">
+        <v>2005</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Hamilton/home/188391617</t>
+          <t>https://www.redfin.com/PA/Greencastle/841-Rutherford-Dr-17225/home/53516395</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3068,10 +3066,12 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>11035162404</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1</v>
+        <v>5284635685</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3085,25 +3085,25 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>NOTTINGHAM MEADOWS</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>39.746873</v>
+        <v>39.7332184</v>
       </c>
       <c r="W28" t="n">
-        <v>-77.763538</v>
+        <v>-77.7363783</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3A2CEA28012A</t>
+          <t>81F31E08DAC3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aspen Attached Plan</t>
+          <t>158 Pleasant Waters Rd #51</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3117,16 +3117,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>299990</v>
+        <v>492990</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>1440</v>
+        <v>2657</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -3142,14 +3142,12 @@
           <t>No HOA fee</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M29" t="n">
+        <v>2025</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Aspen-Attached/home/188404717</t>
+          <t>https://www.redfin.com/PA/Greencastle/158-Pleasant-Waters-Rd-17225/unit-51/home/194740707</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3163,12 +3161,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>11034886496</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>4959070339</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3186,21 +3182,21 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>39.797315</v>
+        <v>39.747841</v>
       </c>
       <c r="W29" t="n">
-        <v>-77.77501700000001</v>
+        <v>-77.7644483</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F2301B4AD0A7</t>
+          <t>PAFL2025350</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sussex Plan</t>
+          <t>136 N Washington St</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3214,7 +3210,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>416990</v>
+        <v>285500</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
@@ -3222,8 +3218,10 @@
       <c r="G30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="n">
-        <v>1766</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No sq ft provided</t>
+        </is>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -3232,21 +3230,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>No HOA fee</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M30" t="n">
+        <v>1907</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Sussex/home/188389350</t>
+          <t>https://www.redfin.com/PA/Greencastle/136-N-Washington-St-17225/home/53523712</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3260,7 +3256,7 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>11035208799</v>
+        <v>5023721054</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -3274,7 +3270,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>GREAT LOCATION! This 3 bed, 2 bath gem is a must see! Part of Greencastle Antrim school district. Just a very short drive or even walk to several amenities, restaurants and shops. Featuring an eat-in kitchen, mudroom/laundry room, den, numerous rooms throughout with tons of space. All of you handymen, car fanatics/collectors, carpenters (and more) don’t want to miss taking a look at the garage/pole building! Fall in love with the 22x40 building in the rear of home with working electric. This property boosts plenty of storage space, including the utility shed.</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -3283,21 +3279,21 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>39.746873</v>
+        <v>39.7920377</v>
       </c>
       <c r="W30" t="n">
-        <v>-77.763538</v>
+        <v>-77.72497679999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PAFL2016790</t>
+          <t>PAFL2025290</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4051 Statler Rd</t>
+          <t>928 Raeann Dr</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3311,16 +3307,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1082000</v>
+        <v>319900</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>1464</v>
+        <v>1440</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -3331,17 +3327,15 @@
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
+      <c r="L31" t="n">
+        <v>17</v>
       </c>
       <c r="M31" t="n">
-        <v>1900</v>
+        <v>2023</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/4051-Statler-Rd-17225/home/188198700</t>
+          <t>https://www.redfin.com/PA/Greencastle/928-Raeann-Dr-17225/home/188220856</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3355,7 +3349,7 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>11491759791</v>
+        <v>5204624526</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -3369,30 +3363,30 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Located in Greencastle-Antrim School District on a peaceful country road, 4051 Statler Rd is just 10 minutes to the heart of town. This property consists of 2 parcels. Parcel #1: 55.2 acres. Built in the early 1900&amp;rsquo;s, this piece includes a 3-bedroom farmhouse with a beautifully updated kitchen including ceramic tile flooring, granite countertop and tile backsplash. Functional kitchen island offers storage and space for socializing during meal prep. Custom-made oak cabinets and beautiful stainless-steel appliances complete this beautiful renovation. First floor laundry room is plumbed and can be fitted with an additional full or half bath. Large living area provides ample space for gat</t>
+          <t>Discover the perfect blend of quality and convenience at 928 Raeann Dr, a stunning three-bedroom, two bathroom, two story home showcasing the benefits of new construction and premium suite upgrades. Your next home boats a spacious kitchen equipped with granite countertops, high-end appliances, and ample counter space. The open floor plan seamlessly connects the kitchen to the living areas, creating and inviting atmosphere for both daily living and entertaining. Additional amenities include a two car garage and a patio, ideal for outdoor relaxation. Call today for your private tour.</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>ANTRIM TWP</t>
+          <t>ROLLING HILLS</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>39.8465066</v>
+        <v>39.7977515</v>
       </c>
       <c r="W31" t="n">
-        <v>-77.7730847</v>
+        <v>-77.774778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PAFL2016826</t>
+          <t>PAFL2025098</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2469 Castlegreen Dr</t>
+          <t>208 E E Baltimore St</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3406,16 +3400,18 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>582000</v>
+        <v>99900</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2792</v>
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No sq ft provided</t>
+        </is>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -3424,17 +3420,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>2024</v>
+        <v>1900</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/2469-Castlegreen-Dr-17225/home/188222298</t>
+          <t>https://www.redfin.com/PA/Greencastle/208-E-Baltimore-St-17225/home/53523953</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3448,10 +3446,12 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>11286755681</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1</v>
+        <v>5666388649</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3460,30 +3460,30 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>&amp;quot;TO BE BUILT&amp;quot; - NEW CONSTRUCTION. LOT 61   Beautiful wooded backdrop Lot with potential for walk-out lower level!  . 48 ac. Co-Marketed with Caruso Homes. This Model is the ----&amp;quot;COVERDALE&amp;quot; ----  The Coverdale Plan is a 3 Bedroom, 2 1/2 Bath Home with the &amp;quot;Owner's Suite Main Level&amp;quot; and the option for an &amp;quot;In-Law Suite Main Level&amp;quot; as well. Upstairs, there are 2 bedrooms with a Jack and Jill bath and a large loft area. The Coverdale has a large Kitchen area with a Breakfast room, large pantry, and a large island all open to a spacious Family room with a gas fireplace leading to a rear Screened Covered Porch. ---Buyer may choose any of Caruso's models that</t>
+          <t>Located in the highly sought-after heart of Greencastle, this property offers incredible potential for investors or those looking to put their personal touch on a home. With the year of construction unknown, this is a total rehab project waiting to be transformed into a charming residence. The property is situated in a fantastic neighborhood with excellent schools, making it a prime spot for families or renters. The home features multiple outbuildings, perfect for extra storage, a workshop, or future expansion opportunities. The rear parking adds convenience, making it easy to access the property. The possibilities are endless, with some vision and work, this could be a true gem in a fantas</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>GREENCASTLE GREENS ESTATES</t>
+          <t>Greencastle</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>39.8093971</v>
+        <v>39.7894762</v>
       </c>
       <c r="W32" t="n">
-        <v>-77.75867839999999</v>
+        <v>-77.7236054</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PAFL2015442</t>
+          <t>PAFL2024762</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2241 Grove Meadow Ln</t>
+          <t>34 Walter Ave</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3497,16 +3497,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>459400</v>
+        <v>319000</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>2382</v>
+        <v>1950</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3523,11 +3523,11 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>2023</v>
+        <v>1946</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/2241-Grove-Meadow-Ln-17225/home/187363954</t>
+          <t>https://www.redfin.com/PA/Greencastle/34-W-Walter-Ave-17225/home/53523398</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3541,10 +3541,12 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>16048704349</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1</v>
+        <v>5833274761</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3553,30 +3555,30 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>You have to see this home to enjoy the floor plan and find the extras. First floor home office or den, separate dining area for family or guest. Equipped kitchen with granite counter-top, ceramic tile back splash and center island. Breakfast nook area with patio door leading to a paver patio. Kitchen and breakfast nook all open to the family room, with a gas fireplace and a stone front. Powder room. Upstairs is a must-see large owner suite with tray ceiling, his and hers walk in closets. The owner bath is spacious with double vanity and upgraded fixtures, ceramic tile floor, walk in ceramic tile shower and a private water closet. 3 other bedrooms and hall bath. No short cuts here!   There a</t>
+          <t>Welcome to this beautifully remodeled Cape Cod home, set on a spacious . 34-acre lot offering plenty of privacy and outdoor space. Inside, you'll find an inviting open-concept floor plan that seamlessly blends the kitchen and living room, creating a bright and airy atmosphere ideal for relaxation and entertaining. The modern kitchen features sleek stainless steel appliances, plenty of cabinetry, and ample counter space, making it perfect for meal prep and gathering with loved ones. This home offers 4 well-sized bedrooms, providing ample space for guests, a home office, or any of your needs. With 2 full baths, the home has been thoughtfully updated to offer both style and convenience. The fi</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>CEDARWOOD MEADOWS</t>
+          <t>GREENCASTLE</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>39.749994</v>
+        <v>39.7978187</v>
       </c>
       <c r="W33" t="n">
-        <v>-77.758943</v>
+        <v>-77.72806850000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAFL2015336</t>
+          <t>PAFL2024992</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TBD Paradise View Dr</t>
+          <t>Lot 23 Delanie Dr</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3590,16 +3592,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>424990</v>
+        <v>629900</v>
       </c>
       <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H34" t="n">
-        <v>1979</v>
+        <v>3053</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -3611,16 +3613,14 @@
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>8</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2025</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Antrim-Township/TBD-Paradise-View-Dr-17225/home/176950235</t>
+          <t>https://www.redfin.com/PA/Greencastle/LOT-23-Delanie-Dr-17225/home/165409329</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3634,10 +3634,12 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>18397206577</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1</v>
+        <v>6258975723</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3646,30 +3648,30 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Welcome to Paradise Estates, a hidden gem community tucked away in the picturesque town of Greencastle, Pennsylvania that truly lives up to its name. If you're searching for a place to call home that's secluded and peaceful, yet fully equipped with modern amenities and beautiful homes&amp;mdash;then you&amp;rsquo;ll undoubtedly find what you&amp;rsquo;re looking for in this community. Paradise Estates offers a wide range of single-family home plans that are sure to delight any homebuyer. With cozy ranch-style homes, spacious two-story layouts, and customizable features, you can find the home of your dreams that perfectly suits your needs and lifestyle. These homes feature up to 4 bedrooms and up to 4,0</t>
+          <t>Welcome to this beautiful Greenworth Worthington model home, located in the highly desirable Heritage Estates neighborhood. This spacious home offers 5 bedrooms, including one conveniently located on the main floor, perfect for guests or a home office. The primary suite features a large bathroom and walk-in closet. With 3 full baths, a 3-car garage, and a full unfinished walk-out basement, there’s plenty of space to grow. Additional features include the mudroom off of the garage, a cozy gas fireplace, and modern finishes throughout. This home is perfect for your family—don’t miss your chance to make it yours!</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>PARADISE ESTATES</t>
+          <t>HERITAGE ESTATES WEST</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>39.74659</v>
+        <v>39.79799243</v>
       </c>
       <c r="W34" t="n">
-        <v>-77.76409</v>
+        <v>-77.73635548</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAFL2015290</t>
+          <t>PAFL2024796</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TDB Paradise View Dr</t>
+          <t>204 Walnut St</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3683,16 +3685,18 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>404990</v>
+        <v>304900</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1948</v>
+        <v>1.5</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No sq ft provided</t>
+        </is>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -3701,17 +3705,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>2024</v>
+        <v>1957</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Antrim-Township/TDB-Paradise-View-Dr-17225/home/186466949</t>
+          <t>https://www.redfin.com/PA/Greencastle/204-Walnut-St-17225/home/53516814</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3725,7 +3731,7 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>18405525128</v>
+        <v>7120245334</v>
       </c>
       <c r="R35" t="n">
         <v>1</v>
@@ -3737,30 +3743,30 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NICE BRICK RANCHER IN STATE LINE, PA ON OVER AN ACRE! Greencastle-Antrim School District! This home features 3 bedrooms, 1.5 bathrooms, living room, dining room, full partially finished basement, 2 car detached garage, 1-car garage, and nice utility sheds. Hardwood floors extend through much of the home! Lovely level lot perfect for days of fun! Convenient location near I-81, Rt 11, and more!</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>PARADISE ESTATES</t>
+          <t>Greencastle</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>39.75010959</v>
+        <v>39.7262529</v>
       </c>
       <c r="W35" t="n">
-        <v>-77.76291519</v>
+        <v>-77.7220703</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAFL2014342</t>
+          <t>PAFL2024364</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>642 Milnor Rd</t>
+          <t>55 W Baltimore St</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3774,16 +3780,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>350000</v>
+        <v>325000</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2450</v>
+        <v>3052</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -3800,11 +3806,11 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>2004</v>
+        <v>1900</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/642-Milnor-Rd-17225/home/53516324</t>
+          <t>https://www.redfin.com/PA/Greencastle/55-W-Baltimore-St-17225/home/193968601</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3818,12 +3824,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>22896995701</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>9981618658</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3832,30 +3836,30 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>This property sits between 195 acres of Industrial Ground (currently actively listed under contract) it is next to a Norfolk Southern Railway Intermodel Rail Yard, is 4 miles from Hagerstown Regional Airport, close to 2 major Route 81 Interchanges (Exit #1  &amp;amp;  Exit #3) and very close proximity to Route 11-Molly Pitcher Highway. Property sits directly across the road from Walmart Fulfillment Center. Subject property being sold along with the adjacent parcel #01-0A27.. 010.000000.  Zoning-Industrial District of Antrim Township, Franklin County, PA: please contact Antrim Twp. for final accepted uses. Accepted uses: Manufacturing, assembling, converting, altering, finishing, cleaning or any</t>
+          <t>Zoned for Community Commercial use, this property offers limitless possibilities. Currently, the second level serves as a primary residence, while the main level is leased by Skin 360 as a business space. The residence features two bedrooms, a sleeping loft on the third level, and a spacious attic for additional storage. A TV room, laundry room, storage area, and a full bathroom are conveniently located off the main hallway. The expansive living and dining room, adjacent to the kitchen, provides an excellent area for entertaining. This space can easily extend to the 23x8 Trex deck, perfect for outdoor gatherings. The primary residence includes two covered off-street tandam parking spaces, o</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>GREENCASTLE BOROUGH</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>39.7503253</v>
+        <v>39.7908556</v>
       </c>
       <c r="W36" t="n">
-        <v>-77.74017859999999</v>
+        <v>-77.7293299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAFL2013756</t>
+          <t>PAFL2024658</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1356 Shannon Dr S</t>
+          <t>3632 Oakley Ln</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3869,16 +3873,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>549900</v>
+        <v>250000</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
         <v>2.5</v>
       </c>
       <c r="H37" t="n">
-        <v>2700</v>
+        <v>1625</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -3887,33 +3891,33 @@
         <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>No HOA fee</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>21</v>
       </c>
       <c r="M37" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/1356-Shannon-Dr-S-17225/home/185441471</t>
+          <t>https://www.redfin.com/PA/Greencastle/3632-Oakley-Ln-17225/home/105512607</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Open House - 12:00 - 2:00 PM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Mar 10, 12:00PM</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>25747400494</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="R37" t="n">
         <v>1</v>
@@ -3925,30 +3929,30 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Charming Townhome with Upgrades and Ample Space Welcome to 3632 Oakley Ln, a beautifully updated 3-bedroom, 2-bathroom townhome offering 1,740 square feet of comfortable living space. This affordable gem features an attached 1-car garage and thoughtful upgrades throughout. Step inside to find a welcoming main floor entry that leads to a fully finished family room, perfect for entertaining or relaxing. The kitchen shines with stainless steel appliances, an upgraded ceiling fan, and plenty of counter and cabinet space to meet your culinary needs. Enjoy the outdoors on the oversized 16x12 upper deck, overlooking a large, fenced-in rear yard—ideal for pets, play, or hosting gatherings. Th</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>FAIRWAYS AT GREENCASTLE GREENS</t>
+          <t>ROLLING HILLS</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>39.8013003</v>
+        <v>39.7985887</v>
       </c>
       <c r="W37" t="n">
-        <v>-77.7406981</v>
+        <v>-77.7759392</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAFL2013346</t>
+          <t>78A44331C8D7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1893 Farmall Dr</t>
+          <t>Caicos Plan</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3962,16 +3966,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>559900</v>
+        <v>349990</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>2712</v>
+        <v>1555</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -3982,8 +3986,10 @@
       <c r="K38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" t="n">
-        <v>2</v>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3992,7 +3998,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/1893-Farmall-Dr-17225/home/53515353</t>
+          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Caicos/home/194116843</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4006,10 +4012,12 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>27463621858</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1</v>
+        <v>8439829201</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -4018,30 +4026,30 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Exciting news! A gorgeous new home is set to be built and ready for delivery on September 15th, 2023. This stunning 4 bedroom, 3 full bathroom, 1 half bathroom home comes equipped with all the luxurious features you could want, including a 2-car garage and charming front porch. You'll love the convenient main level, featuring a half bath, a luxurious master suite with a master bath and walk-in closet, and a laundry room and mudroom. The great room with an electric fireplace and large kitchen with an island are perfect for entertaining. The great room with a gas fireplace is perfect for cozy nights in and the large kitchen with an island will make entertaining a breeze. The upper level featu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>MELROSE MEADOWS I</t>
+          <t>Greencastle</t>
         </is>
       </c>
       <c r="V38" t="n">
-        <v>39.772484</v>
+        <v>39.8054227</v>
       </c>
       <c r="W38" t="n">
-        <v>-77.75393699999999</v>
+        <v>-77.74794230000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAFL2009768</t>
+          <t>05904DA789C7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>226 Milnor Rd</t>
+          <t>Barbados Isle Plan</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4055,20 +4063,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>12600000</v>
+        <v>309990</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>No baths info</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1369</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -4077,19 +4081,21 @@
         <v>0</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>No HOA fee</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1800</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/226-Milnor-Rd-17225/home/182244825</t>
+          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Barbados-Isle/home/194116841</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4103,7 +4109,7 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>44650121373</v>
+        <v>8439833515</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -4117,30 +4123,30 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>This property sits next to a Norfolk Southern Railway Intermodal Rail Yard , is 4 miles from Hagerstown Regional Airport, close to 2 major Route 81 Interchanges (Exit #1 and Exit 3) and very close proximity to Route 11 - Molly Pitcher Highway. Property sits directly across the road from Walmart Fulfillment Center. Subject property being sold along with  adjacent parcel # 01-0A27.010A. 000000.  Zoning - Industrial District of Antrim Township, Franklin County, PA: Please contact Antrim Township for final accepted uses Accepted Uses: Manufacturing, assembling, converting, altering, finishing, cleaning or any other processing, handling or storage of products and materials. Building materials' s</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>ANTRIM</t>
+          <t>Greencastle</t>
         </is>
       </c>
       <c r="V39" t="n">
-        <v>39.7473392</v>
+        <v>39.8054227</v>
       </c>
       <c r="W39" t="n">
-        <v>-77.7319073</v>
+        <v>-77.74794230000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAFL2017788</t>
+          <t>PAFL2024164</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>34.77 Acres Red Oak Est S</t>
+          <t>12400 Molly Pitcher Hwy</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4154,22 +4160,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2490000</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>No beds info</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>No baths info</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>260000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1758</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -4185,14 +4185,12 @@
           <t>No HOA fee</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M40" t="n">
+        <v>1959</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/34-77-Acres-Oak-Ln-17225/home/189151235</t>
+          <t>https://www.redfin.com/PA/Greencastle/12400-Molly-Pitcher-Hwy-17225/home/53515232</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4206,7 +4204,7 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>4999732223</v>
+        <v>11199447279</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -4220,30 +4218,30 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>RED OAK ESTATES Lots 9-28  &amp;amp;  63-79 Plan Approved. 37 Lot Plan Ready to Finish. Come in and make this phase your own. The plan is fully approved and read to begin. Great layout and features large lots.</t>
+          <t>Welcome home to this 3 bedroom, 2 bathroom rancher south of Greencastle. Quick access to Exit 3 of I-81. New central air and furnace. Oversized 2 car garage. New paint. New flooring. Full basement. Shed. Double lot.</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>ANTRIM TWP</t>
         </is>
       </c>
       <c r="V40" t="n">
-        <v>39.78105</v>
+        <v>39.7662803</v>
       </c>
       <c r="W40" t="n">
-        <v>-77.72821999999999</v>
+        <v>-77.7276311</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAFL2015588</t>
+          <t>PAFL2024188</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14501 Molly Pitcher Hwy</t>
+          <t>64 W Walter Ave</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4257,22 +4255,16 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1776447</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>No beds info</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>No baths info</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>330000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1100</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -4288,14 +4280,12 @@
           <t>No HOA fee</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M41" t="n">
+        <v>1963</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/14501-Molly-Pitcher-Hwy-17225/home/53515937</t>
+          <t>https://www.redfin.com/PA/Greencastle/64-W-Walter-Ave-17225/home/53030008</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4309,7 +4299,7 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>17327438460</v>
+        <v>10987652486</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -4323,30 +4313,30 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>Approximately 13 acres of land for commercial use on Molly pitcher highway, backs interstate 81, joins, PA welcome center. Property is zoned community commercial. In Franklin County, situated along interstate 81 in south central Pennsylvania approximately 50 miles south of Harrisburg and 90 miles west of the Baltimore Washington beltways sale includes parcel. 01-0A27-036, 11.83 acres and parcel. 01-0A27-034, 1.56 acres. There is an old house and garage currently on the property that has not been used in years. Seller does use garage, any contents do not convey. Also listed under commercial PAFL2015832</t>
+          <t>Step inside and fall in love with this meticulously maintained, one level, brick rancher. Move in ready! This charming home boasts beautiful oak hardwood flooring throughout. The extra large room in the rear of the home can offer multiple different uses- family room, formal dining room, play room, large primary bedroom to add an extra bedroom  &amp;  more! You name it! Eat in kitchen with lovely wood cabinets and newer matching appliances. Easy access to the main level laundry room makes this home one to appreciate. Each bedroom offers natural lighting through windows. The spacious living room boasts plenty of space for furniture and hosting gatherings. Stay warm and cozy during these frigi</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>GREENCASTLE BOROUGH</t>
         </is>
       </c>
       <c r="V41" t="n">
-        <v>39.7395735</v>
+        <v>39.7983521</v>
       </c>
       <c r="W41" t="n">
-        <v>-77.7256958</v>
+        <v>-77.72912239999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAFL2017032</t>
+          <t>9BFA4AF5CBA5</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hager Road, Lot #58 Hager Rd</t>
+          <t>Corsica Plan</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4360,22 +4350,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41999</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>No beds info</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>No baths info</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>499990</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4009</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -4384,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -4398,7 +4382,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Peters-Township/Hager-Road-Lot-58-Hager-Rd-17225/home/188568726</t>
+          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Corsica/home/193739588</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -4412,12 +4396,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>10107388797</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>11685638414</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4435,21 +4417,21 @@
         </is>
       </c>
       <c r="V42" t="n">
-        <v>39.82427</v>
+        <v>39.8028612</v>
       </c>
       <c r="W42" t="n">
-        <v>-77.79545</v>
+        <v>-77.7442516</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAFL2015628</t>
+          <t>PAFL2023530</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4000 Rice Hollow Rd</t>
+          <t>61 S Carl Ave</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4463,22 +4445,16 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>735000</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>No beds info</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>No baths info</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>230000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1396</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -4494,14 +4470,12 @@
           <t>No HOA fee</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M43" t="n">
+        <v>1950</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/4000-Rice-Hollow-Rd-17225/home/143699046</t>
+          <t>https://www.redfin.com/PA/Greencastle/61-S-Carl-Ave-17225/home/53523939</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -4515,7 +4489,7 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>17092186620</v>
+        <v>13271067963</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -4529,30 +4503,30 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>HUGE PRICE REDUCTION!  SECLUDED 113&amp;plusmn; ACRES w/ Conococheague Creek Frontage!  This private setting is unique in every way and offers the perfect homesite for a Country Estate. Approx. 7 acres are cleared (pasture/tillable) w/ the remainder being wooded. The cleared acreage offers great opportunity for a very private homesite and/or space for livestock. Deer  &amp;amp;  Turkey are plentiful and access to the Conochocheague offers fishing, etc. Create your own picnic/campsite along the creek and walk or ride the many trails that run throughout the property. Experience the Big Sky Feeling this beautiful country setting provides. The public road literally runs out at this property as Rice Hol</t>
+          <t>Four Bedroom Cape Cod in the Borough of Greencastle. Home features hardwood floors, main level bedrooms and bath. Lower level has a family room. Screened in back porch and oversized carport with storage.</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Greencastle</t>
+          <t>GREENCASTLE BOROUGH</t>
         </is>
       </c>
       <c r="V43" t="n">
-        <v>39.7433796</v>
+        <v>39.7896727</v>
       </c>
       <c r="W43" t="n">
-        <v>-77.7861848</v>
+        <v>-77.7311251</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAFL2011850</t>
+          <t>8CF6B700BCFD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Celestial Ter</t>
+          <t>Frankford Plan</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4566,22 +4540,16 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>79500</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>No beds info</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>No baths info</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>440990</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1923</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -4590,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -4604,7 +4572,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/Celestial-Ter-17225/home/53556788</t>
+          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Frankford/home/193306573</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -4618,12 +4586,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>34796624660</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>14711249406</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4632,30 +4598,30 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>PREMIUM LOT IN MUCH DESIRED  &amp;amp;  PRESTIGIOUS HERITAGE ESTATES! . 38 Acres, Great Neighborhood, Greencastle-Antrim Schools, Nice View of Town, Public Sewer  &amp;amp;  Water available, Near the entrance of the community, Low Traffic Street, Choose Your Builder</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>HERITAGE ESTATES</t>
+          <t>Greencastle</t>
         </is>
       </c>
       <c r="V44" t="n">
-        <v>39.794813</v>
+        <v>39.746873</v>
       </c>
       <c r="W44" t="n">
-        <v>-77.731413</v>
+        <v>-77.763538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAFL2011038</t>
+          <t>PAFL2022080</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11274 Grant Shook Rd</t>
+          <t>TBD Paradise View Dr</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4669,22 +4635,16 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>74900</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>No beds info</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>No baths info</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>438990</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2500</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -4693,10 +4653,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4705,7 +4665,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/11274-Grant-Shook-Rd-17225/home/183150459</t>
+          <t>https://www.redfin.com/PA/Antrim-Township/TBD-Paradise-View-Dr-17225/home/176950235</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -4719,12 +4679,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>40071101566</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>20441771478</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4733,30 +4691,30 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>BUILDING LOT IN MELROSE MEADOWS III. Lot faces Grant Shook Road and has been improved with 4' aluminum fence on side and rear. Public sewer available and well need for water. Walk to Antrim Township Park and close to PA/MD line. Build your dream home today!</t>
+          <t>Welcome to Paradise Estates, a hidden gem community tucked away in the picturesque town of Greencastle, Pennsylvania that truly lives up to its name. If you're searching for a place to call home that's secluded and peaceful, yet fully equipped with modern amenities and beautiful homes—then you’ll undoubtedly find what you’re looking for in this community. Paradise Estates offers a wide range of single-family home plans that will delight any homebuyer. With cozy ranch-style homes, spacious two-story layouts, and customizable features, you can find the home of your dreams that perfectly suits your needs and lifestyle. These homes feature up to 4 bedrooms and up to 4,027 squa</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>MELROSE MEADOWS III</t>
+          <t>PARADISE ESTATES</t>
         </is>
       </c>
       <c r="V45" t="n">
-        <v>39.7835505</v>
+        <v>39.74982716</v>
       </c>
       <c r="W45" t="n">
-        <v>-77.74497</v>
+        <v>-77.76259895</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAFL2011042</t>
+          <t>6A08DDAA7BC3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LOT 1 Hykes Rd</t>
+          <t>Powell Plan</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4770,22 +4728,16 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>449900</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>No beds info</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>No baths info</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>444990</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3126</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -4794,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -4808,7 +4760,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/1-Hykes-Rd-17225/home/173427402</t>
+          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Powell/home/192111528</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -4822,12 +4774,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>40046185779</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>20553114843</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4836,7 +4786,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>Don&amp;rsquo;t sleep on this versatile piece of real estate that would be great for a variety of businesses. With over 65,000 cars passing by each day on I-81 and 6,700 US-11, this property has amazing visibility. Exits 1  &amp;amp;  3 areas are growing rapidly, so this would be the perfect spot to build apartments to satisfy the needs of the expanding worker base. Or, use the property for needed vehicle storage or repair facilities along the super busy I-81/US-11 corridor. There is also plenty of space to put in a ton of storage units, which would be perfect to accommodate the storage needs for the nearly 400 homes in 3 adjacent communities. Don't miss out on this incredible opportunity! CALL NOW</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -4845,21 +4795,21 @@
         </is>
       </c>
       <c r="V46" t="n">
-        <v>39.7313945</v>
+        <v>39.8024755</v>
       </c>
       <c r="W46" t="n">
-        <v>-77.72488420000001</v>
+        <v>-77.7438168</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAFL2007976</t>
+          <t>67B373A7A942</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Molly Pitcher</t>
+          <t>Hanover Plan</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4873,22 +4823,16 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>No beds info</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>No baths info</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>366990</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1178</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -4897,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -4911,7 +4855,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/Molly-Pitcher-Hwy-17225/home/53515935</t>
+          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Hanover/home/191481782</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4925,7 +4869,7 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>54088174508</v>
+        <v>24502901781</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -4939,7 +4883,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Interstate commercial land consisting of approximately 42.97 acres (2 parcels) located adjacent to Interstate 81 and Route 11 in Franklin County, Antrim Township, Greencastle, PA. Property is zoned Highway Commercial District. Natural gas on property, water and sewer nearby. Situated along I-81 in south-central Pennsylvania approximately 50 miles south of Harrisburg and 90 miles west of the Baltimore/Washington beltways, and within 24 hours of 50% of the North American population. Additionally, Franklin County&amp;rsquo;s strategic location is convenient to attracting skilled workers from the Quad-State Region of Maryland, West Virginia, Virginia, and other counties in South Central, PA. Togeth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -4948,21 +4892,21 @@
         </is>
       </c>
       <c r="V47" t="n">
-        <v>39.757464</v>
+        <v>39.746873</v>
       </c>
       <c r="W47" t="n">
-        <v>-77.729333</v>
+        <v>-77.763538</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PAFL170172</t>
+          <t>PAFL2020340</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>E Baltimore St</t>
+          <t>6777 Dumeny Rd</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4976,22 +4920,16 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>No beds info</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>No baths info</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>No sq ft provided</t>
-        </is>
+        <v>1160000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4000</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -5007,14 +4945,12 @@
           <t>No HOA fee</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Year built not provided</t>
-        </is>
+      <c r="M48" t="n">
+        <v>1762</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>https://www.redfin.com/PA/Greencastle/E-Baltimore-St-17225/home/53523436</t>
+          <t>https://www.redfin.com/PA/Greencastle/6777-Dumeny-Rd-17225/home/53541268</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -5028,7 +4964,7 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>133495082757</v>
+        <v>26543129317</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -5042,7 +4978,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>34.44 acres available for sale, 29.37 zoned community commercial and 5.07 zoned general residential all contigeous located just off the Greencastle exit of I-81.  Property borders I-81 with great visibility form the highway. MULTI-FAMILY, HOTELS, RESTAURANTS, RETAIL, OFFICES, C STORES and many. .. more permitted uses within the community commercial zone. 5.07 Acres Parcel 8-2B22-77 Zoned General Residential, 24.67 Acres Parcel 1-A17-75 Zoned Community Commercial, 4.70 Acres Parcel 1-A17-81 Zoned Community Commercial. Also available for sale are two acres in front of this site along Baltimore Street with road frontage.</t>
+          <t>"A Slice of Heaven on 12 Acres!" This Gorgeous property, sits right on the Conococheague Creek and Welsh Run Stream. Allowing you endless enjoyment, listening to the sound of the water rustling as you sit on the porch. The Picturesque setting  gives you direct access for fishing, kayaking and floating. This  Beautiful Log Home began it's journey in 1762 and the Gorgeous Lime-stone farmhouse was built in the early 1800's. This Private Estate has been Completely remodeled! Featuring a Fully Remodeled Kitchen, Fully Remodeled Primary Bathroom, Refinished Hard Wood Floors and So much more!  This 4 Bedrooms, 3 Full Baths HOME, is a Must See! The  Extra Large RV Garage  provides ample s</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -5051,21 +4987,21 @@
         </is>
       </c>
       <c r="V48" t="n">
-        <v>39.786837</v>
+        <v>39.7705187</v>
       </c>
       <c r="W48" t="n">
-        <v>-77.71684</v>
+        <v>-77.8399064</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PAFL164776</t>
+          <t>B61C35F4D842</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LOT 123 Castlegreen Dr</t>
+          <t>Roosevelt Plan</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5079,83 +5015,867 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>59900</v>
-      </c>
-      <c r="F49" t="inlineStr">
+        <v>441990</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2551</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Roosevelt/home/188426033</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>45477821695</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="V49" t="n">
+        <v>39.746873</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-77.763538</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2E045D10B17D</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Raleigh Plan</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>17225</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>432990</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2293</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Raleigh/home/188412035</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>45478334129</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="V50" t="n">
+        <v>39.746873</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-77.763538</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2D5EBB2A3C1A</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hamilton Plan</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>17225</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>410990</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1916</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Hamilton/home/188391617</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>45478771786</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="V51" t="n">
+        <v>39.746873</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-77.763538</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>F2301B4AD0A7</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sussex Plan</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17225</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>430990</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1795</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/Greencastle/Sussex/home/188389350</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>45478818181</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="V52" t="n">
+        <v>39.746873</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-77.763538</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PAFL2015290</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TDB Paradise View Dr</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>17225</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>407990</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1948</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>8</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Antrim-Township/TDB-Paradise-View-Dr-17225/home/186466949</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>52849134511</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>PARADISE ESTATES</t>
+        </is>
+      </c>
+      <c r="V53" t="n">
+        <v>39.75010959</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-77.76291519</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PAFL2026130</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10199 Jasper Dr</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>17225</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>69900</v>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>No beds info</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>No baths info</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>No sq ft provided</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>8</v>
-      </c>
-      <c r="M49" t="inlineStr">
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>Year built not provided</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>https://www.redfin.com/PA/Antrim-Township/LOT-123-Castlegreen-Dr-17225/home/162285556</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>154663884677</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>Build your home in established, beautiful Greencastle Greens, a spectacular golf course community and commuter friendly.</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>GREENCASTLE GREENS</t>
-        </is>
-      </c>
-      <c r="V49" t="n">
-        <v>39.81385</v>
-      </c>
-      <c r="W49" t="n">
-        <v>-77.74587</v>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/10199-Jasper-Dr-17225/home/53515123</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1695014059</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>PAUL MARK ESTATES  is offering this LEVEL  BUILDING  LOT located in a cul-de-sac, complete with well on site (see docs ), electric  on site, NO HOA. This peaceful lot is boarded by mature trees on the  back and one sides with pleasant views. Minutes from I 81 for easy interstate traveling, close to downtown Greencastle for local shopping, restaurants , schools and parks. Hagerstown Airport and Big Box Shopping Stores just minutes away. Sewer tap believed to be in place, well and electric on site.</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>PAULMARK ESTATES</t>
+        </is>
+      </c>
+      <c r="V54" t="n">
+        <v>39.762681</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-77.758276</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PAFL2017788</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>34.77 Acres Red Oak Est S</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17225</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1999900</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No beds info</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>No baths info</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>No sq ft provided</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/34-77-Acres-Oak-Ln-17225/home/189151235</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>39443341606</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>RED OAK ESTATES Lots 9-28  &amp;  63-79 Plan Approved. 37 Lot Plan Ready to Finish. Come in and make this phase your own. The plan is fully approved and read to begin. Great layout and features large lots.</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="V55" t="n">
+        <v>39.78105</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-77.72821999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PAFL2011042</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>LOT 1 Hykes Rd</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>17225</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>399900</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No beds info</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No baths info</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No sq ft provided</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/1-Hykes-Rd-17225/home/173427402</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>74489795162</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Don’t sleep on this versatile piece of real estate that would be great for a variety of businesses. With over 65,000 cars passing by each day on I-81 and 6,700 US-11, this property has amazing visibility. Exits 1  &amp;  3 areas are growing rapidly, so this would be the perfect spot to build apartments to satisfy the needs of the expanding worker base. Or, use the property for needed vehicle storage or repair facilities along the super busy I-81/US-11 corridor. There is also plenty of space to put in a ton of storage units, which would be perfect to accommodate the storage needs for the nearly 400 homes in 3 adjacent communities. Don't miss out on this incredible opportunity! CALL NOW</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="V56" t="n">
+        <v>39.7313945</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-77.72488420000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PAFL178468</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Molly Pitcher</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>17225</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>375000</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No beds info</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No baths info</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>No sq ft provided</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>No HOA fee</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Year built not provided</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>https://www.redfin.com/PA/Greencastle/Molly-Pitcher-Hwy-17225/home/53515935</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>129033036157</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Prime Commercial Site. Great Location with high traffic volume for lots of exposure.</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Greencastle</t>
+        </is>
+      </c>
+      <c r="V57" t="n">
+        <v>39.760713</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-77.735052</v>
       </c>
     </row>
   </sheetData>
